--- a/biology/Zoologie/Galea/Galea.xlsx
+++ b/biology/Zoologie/Galea/Galea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cobayes à dents jaunes
-Les Cobayes à dents jaunes (Galea) sont un genre de Rongeurs de la famille des Cavidés[2], dont le nombre et le nom des différentes espèces est encore discuté.
+Les Cobayes à dents jaunes (Galea) sont un genre de Rongeurs de la famille des Cavidés, dont le nombre et le nom des différentes espèces est encore discuté.
 Ce genre a été décrit pour la première fois en 1832 par le médecin et naturaliste allemand Franz Julius Ferdinand Meyen (1804-1840).
 </t>
         </is>
@@ -513,22 +525,24 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon UICN  (8 févr. 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon UICN  (8 févr. 2013) :
 Galea flavidens (Brandt, 1835)
 Galea monasteriensis Solmsdorff &amp; Kock &amp; Hohoff &amp; Sachser, 2004
-Galea musteloides Meyen, 1832 - Cobaye-belette[4]
+Galea musteloides Meyen, 1832 - Cobaye-belette
 Galea spixii (Wagler, 1831)
-Selon Mammal Species of the World (version 3, 2005)  (8 févr. 2013)[5], ITIS      (8 févr. 2013)[1], Catalogue of Life                                   (8 févr. 2013)[6] :
+Selon Mammal Species of the World (version 3, 2005)  (8 févr. 2013), ITIS      (8 févr. 2013), Catalogue of Life                                   (8 févr. 2013) :
 Galea flavidens (Brandt, 1835)
 Galea musteloides Meyen, 1832
 Galea spixii (Wagler, 1831)
-Selon NCBI  (8 févr. 2013)[7] :
+Selon NCBI  (8 févr. 2013) :
 Galea monasteriensis Solmsdorff &amp; Kock &amp; Hohoff &amp; Sachser, 2004
 Galea musteloides Meyen, 1832
 Galea spixii (Wagler, 1831)
-Selon Paleobiology Database                   (8 févr. 2013)[8] :
+Selon Paleobiology Database                   (8 févr. 2013) :
 Galea musteloides
 Galea spixii</t>
         </is>
